--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="363">
   <si>
     <t>Property</t>
   </si>
@@ -539,12 +539,6 @@
   </si>
   <si>
     <t>この識別子は、同意のこのコピーを識別します。この識別子が同意記録の識別子として他の場所でも使用されている場合（例：CDA同意書）、同意の詳細は同じであると予想されます。 / This identifier identifies this copy of the consent. Where this identifier is also used elsewhere as the identifier for a consent record (e.g. a CDA consent document) then the consent details are expected to be the same.</t>
-  </si>
-  <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="urn:ietf:rfc:3986"/&gt;
-  &lt;value value="Local eCMS identifier"/&gt;
-&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -1499,7 +1493,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="42.44921875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -3509,7 +3503,7 @@
         <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>37</v>
@@ -3560,24 +3554,24 @@
         <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3603,16 +3597,16 @@
         <v>126</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -3637,14 +3631,14 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
       </c>
@@ -3661,7 +3655,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>49</v>
@@ -3676,24 +3670,24 @@
         <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3716,13 +3710,13 @@
         <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3752,11 +3746,11 @@
         <v>108</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3773,7 +3767,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>49</v>
@@ -3802,10 +3796,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3828,13 +3822,13 @@
         <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3864,11 +3858,11 @@
         <v>108</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
       </c>
@@ -3885,7 +3879,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>49</v>
@@ -3900,24 +3894,24 @@
         <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3940,16 +3934,16 @@
         <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3999,7 +3993,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4014,24 +4008,24 @@
         <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4054,16 +4048,16 @@
         <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4113,7 +4107,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4128,28 +4122,28 @@
         <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4168,16 +4162,16 @@
         <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4227,7 +4221,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -4242,28 +4236,28 @@
         <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4282,13 +4276,13 @@
         <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4339,7 +4333,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -4354,7 +4348,7 @@
         <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>37</v>
@@ -4363,15 +4357,15 @@
         <v>37</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4394,16 +4388,16 @@
         <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4453,7 +4447,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -4471,7 +4465,7 @@
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>37</v>
@@ -4482,10 +4476,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4508,13 +4502,13 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4565,7 +4559,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -4594,10 +4588,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4623,10 +4617,10 @@
         <v>63</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4706,10 +4700,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4738,7 +4732,7 @@
         <v>151</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>153</v>
@@ -4820,14 +4814,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4849,10 +4843,10 @@
         <v>70</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>153</v>
@@ -4907,7 +4901,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -4936,10 +4930,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4965,10 +4959,10 @@
         <v>92</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5019,7 +5013,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5028,7 +5022,7 @@
         <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>61</v>
@@ -5048,10 +5042,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5077,13 +5071,13 @@
         <v>92</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5133,7 +5127,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -5142,7 +5136,7 @@
         <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>61</v>
@@ -5162,10 +5156,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5188,19 +5182,19 @@
         <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5228,11 +5222,11 @@
         <v>108</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
       </c>
@@ -5249,7 +5243,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5258,7 +5252,7 @@
         <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>61</v>
@@ -5278,10 +5272,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5304,13 +5298,13 @@
         <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5361,7 +5355,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5390,10 +5384,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5419,10 +5413,10 @@
         <v>63</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5502,10 +5496,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5534,7 +5528,7 @@
         <v>151</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>153</v>
@@ -5616,14 +5610,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5645,10 +5639,10 @@
         <v>70</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>153</v>
@@ -5703,7 +5697,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -5732,10 +5726,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5758,13 +5752,13 @@
         <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5815,7 +5809,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>49</v>
@@ -5844,10 +5838,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5870,13 +5864,13 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5927,7 +5921,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -5956,10 +5950,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5982,13 +5976,13 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6039,7 +6033,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6068,10 +6062,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6094,13 +6088,13 @@
         <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6151,7 +6145,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6180,10 +6174,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6209,10 +6203,10 @@
         <v>63</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6292,10 +6286,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6324,7 +6318,7 @@
         <v>151</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>153</v>
@@ -6406,14 +6400,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6435,10 +6429,10 @@
         <v>70</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>153</v>
@@ -6493,7 +6487,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6522,10 +6516,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6551,10 +6545,10 @@
         <v>126</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6581,14 +6575,14 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
       </c>
@@ -6605,7 +6599,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -6634,10 +6628,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6660,13 +6654,13 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6717,7 +6711,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -6746,10 +6740,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6772,13 +6766,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6786,7 +6780,7 @@
         <v>37</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>37</v>
@@ -6831,7 +6825,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -6860,10 +6854,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6889,10 +6883,10 @@
         <v>63</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6972,10 +6966,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7004,7 +6998,7 @@
         <v>151</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>153</v>
@@ -7086,14 +7080,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7115,10 +7109,10 @@
         <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>153</v>
@@ -7173,7 +7167,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7202,10 +7196,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7228,13 +7222,13 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7264,11 +7258,11 @@
         <v>108</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7285,7 +7279,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>49</v>
@@ -7314,10 +7308,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7340,13 +7334,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7397,7 +7391,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>49</v>
@@ -7426,10 +7420,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7452,23 +7446,23 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q53" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>37</v>
@@ -7492,11 +7486,11 @@
         <v>116</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
       </c>
@@ -7513,7 +7507,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -7542,10 +7536,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7571,13 +7565,13 @@
         <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7606,7 +7600,7 @@
         <v>108</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>110</v>
@@ -7627,7 +7621,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -7656,10 +7650,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7685,13 +7679,13 @@
         <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7720,11 +7714,11 @@
         <v>108</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
       </c>
@@ -7741,7 +7735,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -7770,10 +7764,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7799,13 +7793,13 @@
         <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7834,11 +7828,11 @@
         <v>108</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
       </c>
@@ -7855,7 +7849,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -7884,10 +7878,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7910,16 +7904,16 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7948,11 +7942,11 @@
         <v>116</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>37</v>
       </c>
@@ -7969,7 +7963,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -7998,10 +7992,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8024,16 +8018,16 @@
         <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8083,7 +8077,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -8112,10 +8106,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8138,13 +8132,13 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8152,7 +8146,7 @@
         <v>37</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>37</v>
@@ -8197,7 +8191,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -8218,7 +8212,7 @@
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -8226,10 +8220,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8255,10 +8249,10 @@
         <v>63</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8338,10 +8332,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8370,7 +8364,7 @@
         <v>151</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>153</v>
@@ -8452,14 +8446,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8481,10 +8475,10 @@
         <v>70</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>153</v>
@@ -8539,7 +8533,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -8568,10 +8562,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8597,10 +8591,10 @@
         <v>126</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8627,14 +8621,14 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
       </c>
@@ -8651,7 +8645,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>49</v>
@@ -8680,10 +8674,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8706,13 +8700,13 @@
         <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8763,7 +8757,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>49</v>
@@ -8792,10 +8786,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8821,10 +8815,10 @@
         <v>40</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8875,7 +8869,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -242,7 +242,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -262,7 +262,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Consent.meta.versionId</t>
@@ -291,7 +291,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースのバージョンが最後に変更されたとき」</t>
+    <t>リソースのバージョンが最後に変更されたとき</t>
   </si>
   <si>
     <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
@@ -316,8 +316,8 @@
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
   </si>
   <si>
-    <t>「プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。」</t>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
   </si>
   <si>
     <t>Meta.source</t>
@@ -385,7 +385,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>「様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。」</t>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
@@ -1065,7 +1065,7 @@
     <t>Consent.provision.code</t>
   </si>
   <si>
-    <t>例えばコンテンツ内の泡またはスノムCTコードなど / e.g. LOINC or SNOMED CT code, etc. in the content</t>
+    <t>例えばコンテンツ内の泡またはSNOMED-CTコードなど / e.g. LOINC or SNOMED CT code, etc. in the content</t>
   </si>
   <si>
     <t>このコードがインスタンスで見つかった場合、ルールが適用されます。 / If this code is found in an instance, then the rule applies.</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -310,7 +310,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}ppc-1:ポリシーまたはPolicyruleのいずれか / Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:scope =プライバシーの場合、患者がいる必要があります / IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:scope =研究の場合、患者がいる必要があります / IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:scope = adrの場合、患者がいる必要があります / IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:scope =治療の場合、患者がいる必要があります / IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}ppc-1:ポリシーまたはPolicyruleのいずれか / Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:scope =プライバシーの場合、患者がいる必要があります / IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:scope =研究の場合、患者がいる必要があります / IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:scope = adrの場合、患者がいる必要があります / IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:scope =治療の場合、患者がいる必要があります / IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}ppc-1:ポリシーまたはPolicyruleのいずれか / Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:scope =プライバシーの場合、患者がいる必要があります / IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:scope =研究の場合、患者がいる必要があります / IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:scope = adrの場合、患者がいる必要があります / IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:scope =治療の場合、患者がいる必要があります / IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}ppc-1:ポリシーまたはPolicyruleのいずれか / Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:scope =プライバシーの場合、患者がいる必要があります / IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:scope =研究の場合、患者がいる必要があります / IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:scope = adrの場合、患者がいる必要があります / IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:scope =治療の場合、患者がいる必要があります / IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -362,7 +362,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -382,7 +382,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Consent.meta.versionId</t>
@@ -411,7 +411,7 @@
 </t>
   </si>
   <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
+    <t>「リソースのバージョンが最後に変更されたとき」</t>
   </si>
   <si>
     <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
@@ -430,14 +430,14 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」</t>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
   </si>
   <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+    <t>「プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。」</t>
   </si>
   <si>
     <t>Meta.source</t>
@@ -505,7 +505,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+    <t>「様々なタグを表すコードで、一般的にはワークフローに関連しています。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
@@ -663,6 +663,7 @@
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://acme.org/identifier/local/eCMS"/&gt;
+  &lt;value value="Local eCMS identifier"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
@@ -1190,7 +1191,7 @@
     <t>Consent.provision.code</t>
   </si>
   <si>
-    <t>例えばコンテンツ内の泡またはSNOMED-CTコードなど / e.g. LOINC or SNOMED CT code, etc. in the content</t>
+    <t>例えばコンテンツ内の泡またはスノムCTコードなど / e.g. LOINC or SNOMED CT code, etc. in the content</t>
   </si>
   <si>
     <t>このコードがインスタンスで見つかった場合、ルールが適用されます。 / If this code is found in an instance, then the rule applies.</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -453,7 +453,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Consent.xlsx
@@ -388,7 +388,7 @@
     <t>Consent.meta.versionId</t>
   </si>
   <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+    <t xml:space="preserve">バージョン固有の識別子 </t>
   </si>
   <si>
     <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
@@ -430,7 +430,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
